--- a/img/profit.xlsx
+++ b/img/profit.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="123820"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="195" windowWidth="15120" windowHeight="6750"/>
+    <workbookView xWindow="1260" yWindow="195" windowWidth="15120" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="unos_cero">'Data = 0'!#REF!</definedName>
     <definedName name="unos_completo">Data!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <webPublishing codePage="1252"/>
 </workbook>
 </file>
@@ -307,6 +307,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -457,17 +460,20 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Config"/>
       <sheetName val="Wilcoxon Table"/>
       <sheetName val="Mann Table"/>
       <sheetName val="RSign Table"/>
       <sheetName val="Runs Table"/>
       <sheetName val="KS Table"/>
+      <sheetName val="Lil Table"/>
       <sheetName val="SW Table"/>
       <sheetName val="Stud. Q Table"/>
       <sheetName val="Stud. Q Table 2"/>
       <sheetName val="Sp Rho Table"/>
       <sheetName val="Ken Tau Table"/>
       <sheetName val="Durbin Table"/>
+      <sheetName val="Dunnett Table"/>
     </sheetNames>
     <definedNames>
       <definedName name="corr"/>
@@ -485,6 +491,9 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -533,7 +542,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -568,7 +577,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
